--- a/2026_DSAIML_Club_Batch/Attendance.xlsx
+++ b/2026_DSAIML_Club_Batch/Attendance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\all_batches\2026_DSAIML_Club_Batch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA0BB6F-A928-4F70-B44C-BC74EB95BBEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B343071-119B-4680-BD01-BAE728FBFBB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$17</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="24">
   <si>
     <t>Ahmedabad</t>
   </si>
@@ -91,9 +91,6 @@
   </si>
   <si>
     <t>City</t>
-  </si>
-  <si>
-    <t>Shrey Patel</t>
   </si>
   <si>
     <t>Pushpraj Chavda</t>
@@ -424,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -437,7 +434,7 @@
     <col min="3" max="4" width="8.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -474,10 +471,22 @@
       <c r="L1" s="2">
         <v>46058</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M1" s="2">
+        <v>46063</v>
+      </c>
+      <c r="N1" s="2">
+        <v>46064</v>
+      </c>
+      <c r="O1" s="2">
+        <v>46065</v>
+      </c>
+      <c r="P1" s="2">
+        <v>46070</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -512,8 +521,20 @@
       <c r="L2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -550,8 +571,20 @@
       <c r="L3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -588,8 +621,20 @@
       <c r="L4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -626,8 +671,20 @@
       <c r="L5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -664,8 +721,20 @@
       <c r="L6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O6" t="s">
+        <v>18</v>
+      </c>
+      <c r="P6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -702,8 +771,20 @@
       <c r="L7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M7" t="s">
+        <v>17</v>
+      </c>
+      <c r="N7" t="s">
+        <v>16</v>
+      </c>
+      <c r="O7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -740,8 +821,20 @@
       <c r="L8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M8" t="s">
+        <v>16</v>
+      </c>
+      <c r="N8" t="s">
+        <v>16</v>
+      </c>
+      <c r="O8" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -778,8 +871,20 @@
       <c r="L9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N9" t="s">
+        <v>17</v>
+      </c>
+      <c r="O9" t="s">
+        <v>17</v>
+      </c>
+      <c r="P9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -816,10 +921,22 @@
       <c r="L10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M10" t="s">
+        <v>18</v>
+      </c>
+      <c r="N10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O10" t="s">
+        <v>18</v>
+      </c>
+      <c r="P10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
@@ -854,8 +971,20 @@
       <c r="L11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M11" t="s">
+        <v>16</v>
+      </c>
+      <c r="N11" t="s">
+        <v>16</v>
+      </c>
+      <c r="O11" t="s">
+        <v>16</v>
+      </c>
+      <c r="P11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -892,10 +1021,22 @@
       <c r="L12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M12" t="s">
+        <v>16</v>
+      </c>
+      <c r="N12" t="s">
+        <v>16</v>
+      </c>
+      <c r="O12" t="s">
+        <v>18</v>
+      </c>
+      <c r="P12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>0</v>
@@ -930,45 +1071,72 @@
       <c r="L13" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M13" t="s">
+        <v>17</v>
+      </c>
+      <c r="N13" t="s">
+        <v>17</v>
+      </c>
+      <c r="O13" t="s">
+        <v>17</v>
+      </c>
+      <c r="P13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="M14" t="s">
+        <v>16</v>
+      </c>
+      <c r="N14" t="s">
+        <v>16</v>
+      </c>
+      <c r="O14" t="s">
+        <v>16</v>
+      </c>
+      <c r="P14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
         <v>0</v>
@@ -983,7 +1151,7 @@
         <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G15" t="s">
         <v>16</v>
@@ -995,7 +1163,7 @@
         <v>16</v>
       </c>
       <c r="J15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K15" t="s">
         <v>16</v>
@@ -1003,10 +1171,22 @@
       <c r="L15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M15" t="s">
+        <v>16</v>
+      </c>
+      <c r="N15" t="s">
+        <v>16</v>
+      </c>
+      <c r="O15" t="s">
+        <v>16</v>
+      </c>
+      <c r="P15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
         <v>0</v>
@@ -1015,13 +1195,13 @@
         <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G16" t="s">
         <v>16</v>
@@ -1033,7 +1213,7 @@
         <v>16</v>
       </c>
       <c r="J16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K16" t="s">
         <v>16</v>
@@ -1041,25 +1221,37 @@
       <c r="L16" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M16" t="s">
+        <v>16</v>
+      </c>
+      <c r="N16" t="s">
+        <v>16</v>
+      </c>
+      <c r="O16" t="s">
+        <v>16</v>
+      </c>
+      <c r="P16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G17" t="s">
         <v>16</v>
@@ -1079,43 +1271,17 @@
       <c r="L17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" t="s">
-        <v>16</v>
-      </c>
-      <c r="J18" t="s">
-        <v>16</v>
-      </c>
-      <c r="K18" t="s">
-        <v>16</v>
-      </c>
-      <c r="L18" t="s">
-        <v>16</v>
+      <c r="M17" t="s">
+        <v>16</v>
+      </c>
+      <c r="N17" t="s">
+        <v>16</v>
+      </c>
+      <c r="O17" t="s">
+        <v>16</v>
+      </c>
+      <c r="P17" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/2026_DSAIML_Club_Batch/Attendance.xlsx
+++ b/2026_DSAIML_Club_Batch/Attendance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\all_batches\2026_DSAIML_Club_Batch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B343071-119B-4680-BD01-BAE728FBFBB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29438C17-204A-4858-BA74-2163A97A550E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="24">
   <si>
     <t>Ahmedabad</t>
   </si>
@@ -421,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -434,7 +434,7 @@
     <col min="3" max="4" width="8.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -483,8 +483,14 @@
       <c r="P1" s="2">
         <v>46070</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q1" s="2">
+        <v>46071</v>
+      </c>
+      <c r="R1" s="2">
+        <v>46072</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -533,8 +539,14 @@
       <c r="P2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -583,8 +595,14 @@
       <c r="P3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -633,8 +651,14 @@
       <c r="P4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q4" t="s">
+        <v>17</v>
+      </c>
+      <c r="R4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -683,8 +707,14 @@
       <c r="P5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -733,8 +763,14 @@
       <c r="P6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -783,8 +819,14 @@
       <c r="P7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q7" t="s">
+        <v>17</v>
+      </c>
+      <c r="R7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -833,8 +875,14 @@
       <c r="P8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q8" t="s">
+        <v>16</v>
+      </c>
+      <c r="R8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -883,8 +931,14 @@
       <c r="P9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q9" t="s">
+        <v>17</v>
+      </c>
+      <c r="R9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -933,8 +987,14 @@
       <c r="P10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q10" t="s">
+        <v>17</v>
+      </c>
+      <c r="R10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -983,8 +1043,14 @@
       <c r="P11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q11" t="s">
+        <v>16</v>
+      </c>
+      <c r="R11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -1033,8 +1099,14 @@
       <c r="P12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q12" t="s">
+        <v>18</v>
+      </c>
+      <c r="R12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1083,8 +1155,14 @@
       <c r="P13" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q13" t="s">
+        <v>18</v>
+      </c>
+      <c r="R13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1133,8 +1211,14 @@
       <c r="P14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q14" t="s">
+        <v>16</v>
+      </c>
+      <c r="R14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -1183,8 +1267,14 @@
       <c r="P15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q15" t="s">
+        <v>16</v>
+      </c>
+      <c r="R15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -1233,8 +1323,14 @@
       <c r="P16" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q16" t="s">
+        <v>16</v>
+      </c>
+      <c r="R16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1282,6 +1378,12 @@
       </c>
       <c r="P17" t="s">
         <v>18</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>16</v>
+      </c>
+      <c r="R17" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/2026_DSAIML_Club_Batch/Attendance.xlsx
+++ b/2026_DSAIML_Club_Batch/Attendance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\all_batches\2026_DSAIML_Club_Batch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29438C17-204A-4858-BA74-2163A97A550E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C441141-E881-477E-9F70-5849C1185996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="24">
   <si>
     <t>Ahmedabad</t>
   </si>
@@ -421,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R17"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -434,7 +434,7 @@
     <col min="3" max="4" width="8.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -489,8 +489,11 @@
       <c r="R1" s="2">
         <v>46072</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S1" s="2">
+        <v>46077</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -545,8 +548,11 @@
       <c r="R2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -601,8 +607,11 @@
       <c r="R3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -657,8 +666,11 @@
       <c r="R4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -713,8 +725,11 @@
       <c r="R5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -769,8 +784,11 @@
       <c r="R6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -825,8 +843,11 @@
       <c r="R7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -881,8 +902,11 @@
       <c r="R8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -937,8 +961,11 @@
       <c r="R9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -976,13 +1003,13 @@
         <v>17</v>
       </c>
       <c r="M10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N10" t="s">
         <v>17</v>
       </c>
       <c r="O10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="P10" t="s">
         <v>17</v>
@@ -993,8 +1020,11 @@
       <c r="R10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1049,8 +1079,11 @@
       <c r="R11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -1105,8 +1138,11 @@
       <c r="R12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1161,8 +1197,11 @@
       <c r="R13" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1217,8 +1256,11 @@
       <c r="R14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -1273,8 +1315,11 @@
       <c r="R15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -1329,8 +1374,11 @@
       <c r="R16" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1383,6 +1431,9 @@
         <v>16</v>
       </c>
       <c r="R17" t="s">
+        <v>16</v>
+      </c>
+      <c r="S17" t="s">
         <v>16</v>
       </c>
     </row>

--- a/2026_DSAIML_Club_Batch/Attendance.xlsx
+++ b/2026_DSAIML_Club_Batch/Attendance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\all_batches\2026_DSAIML_Club_Batch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C441141-E881-477E-9F70-5849C1185996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B5D03E-1A38-43FC-9E71-077380063F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="24">
   <si>
     <t>Ahmedabad</t>
   </si>
@@ -421,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S17"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+      <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -434,7 +434,7 @@
     <col min="3" max="4" width="8.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -492,8 +492,11 @@
       <c r="S1" s="2">
         <v>46077</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T1" s="2">
+        <v>46078</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -551,8 +554,11 @@
       <c r="S2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -610,8 +616,11 @@
       <c r="S3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -669,8 +678,11 @@
       <c r="S4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -728,8 +740,11 @@
       <c r="S5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -787,8 +802,11 @@
       <c r="S6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -846,8 +864,11 @@
       <c r="S7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -905,8 +926,11 @@
       <c r="S8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -964,8 +988,11 @@
       <c r="S9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -1023,8 +1050,11 @@
       <c r="S10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1082,8 +1112,11 @@
       <c r="S11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -1141,8 +1174,11 @@
       <c r="S12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1200,8 +1236,11 @@
       <c r="S13" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1259,8 +1298,11 @@
       <c r="S14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -1318,8 +1360,11 @@
       <c r="S15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -1377,8 +1422,11 @@
       <c r="S16" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1434,6 +1482,9 @@
         <v>16</v>
       </c>
       <c r="S17" t="s">
+        <v>16</v>
+      </c>
+      <c r="T17" t="s">
         <v>16</v>
       </c>
     </row>
